--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42932.57879498106</v>
+        <v>42932.57879498101</v>
       </c>
     </row>
     <row r="7">
@@ -26320,13 +26322,13 @@
         <v>43002.96221257855</v>
       </c>
       <c r="E2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="F2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="G2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="H2" t="n">
         <v>43002.96221257855</v>
@@ -26344,13 +26346,13 @@
         <v>43002.96221257855</v>
       </c>
       <c r="M2" t="n">
+        <v>43002.96221257857</v>
+      </c>
+      <c r="N2" t="n">
+        <v>43002.96221257855</v>
+      </c>
+      <c r="O2" t="n">
         <v>43002.96221257856</v>
-      </c>
-      <c r="N2" t="n">
-        <v>43002.96221257857</v>
-      </c>
-      <c r="O2" t="n">
-        <v>43002.96221257855</v>
       </c>
       <c r="P2" t="n">
         <v>43002.96221257855</v>
@@ -26528,13 +26530,13 @@
         <v>-17501.48917028305</v>
       </c>
       <c r="E6" t="n">
-        <v>16126.11082971697</v>
+        <v>16126.11082971694</v>
       </c>
       <c r="F6" t="n">
-        <v>16126.11082971697</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="G6" t="n">
-        <v>16126.11082971697</v>
+        <v>16126.11082971694</v>
       </c>
       <c r="H6" t="n">
         <v>16126.11082971695</v>
@@ -26552,13 +26554,13 @@
         <v>16126.11082971695</v>
       </c>
       <c r="M6" t="n">
+        <v>16126.11082971697</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16126.11082971695</v>
+      </c>
+      <c r="O6" t="n">
         <v>16126.11082971696</v>
-      </c>
-      <c r="N6" t="n">
-        <v>16126.11082971697</v>
-      </c>
-      <c r="O6" t="n">
-        <v>16126.11082971695</v>
       </c>
       <c r="P6" t="n">
         <v>16126.11082971695</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42932.57879498101</v>
+        <v>-83828.37507428401</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="C2" t="n">
         <v>43002.96221257855</v>
@@ -26325,7 +26325,7 @@
         <v>43002.96221257855</v>
       </c>
       <c r="F2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="G2" t="n">
         <v>43002.96221257855</v>
@@ -26346,13 +26346,13 @@
         <v>43002.96221257855</v>
       </c>
       <c r="M2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="N2" t="n">
         <v>43002.96221257855</v>
       </c>
       <c r="O2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="P2" t="n">
         <v>43002.96221257855</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028305</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028305</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028305</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="E6" t="n">
-        <v>16126.11082971694</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="F6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="G6" t="n">
-        <v>16126.11082971694</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="H6" t="n">
-        <v>16126.11082971695</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="I6" t="n">
-        <v>16126.11082971695</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="J6" t="n">
-        <v>16126.11082971695</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="K6" t="n">
-        <v>16126.11082971695</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="L6" t="n">
-        <v>16126.11082971695</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="M6" t="n">
-        <v>16126.11082971697</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="N6" t="n">
-        <v>16126.11082971695</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="O6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821878</v>
       </c>
       <c r="P6" t="n">
-        <v>16126.11082971695</v>
+        <v>975.4368596821878</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83828.37507428401</v>
+        <v>30256.48340805455</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="C2" t="n">
         <v>43002.96221257855</v>
@@ -26334,7 +26334,7 @@
         <v>43002.96221257855</v>
       </c>
       <c r="I2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="J2" t="n">
         <v>43002.96221257855</v>
@@ -26343,10 +26343,10 @@
         <v>43002.96221257855</v>
       </c>
       <c r="L2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="M2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="N2" t="n">
         <v>43002.96221257855</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32652.1631403178</v>
+        <v>-19016.55656728651</v>
       </c>
       <c r="C6" t="n">
-        <v>-32652.16314031781</v>
+        <v>-19016.55656728652</v>
       </c>
       <c r="D6" t="n">
-        <v>-32652.16314031781</v>
+        <v>-19016.55656728652</v>
       </c>
       <c r="E6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="F6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="G6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="H6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="I6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="J6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="K6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="L6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="M6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="N6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="O6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="P6" t="n">
-        <v>975.4368596821878</v>
+        <v>14611.04343271348</v>
       </c>
     </row>
   </sheetData>
